--- a/Nuevo Enfoque Datos/parametrosQuimicosSuelo2010.xlsx
+++ b/Nuevo Enfoque Datos/parametrosQuimicosSuelo2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\Nuevo Enfoque Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885C067-C8B1-4AD3-9AB0-101501746619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D54558-B7B3-4E13-A26F-DAB783F661A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,11 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -571,10 +574,10 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -588,10 +591,10 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
@@ -608,10 +611,10 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -622,10 +625,10 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -642,10 +645,10 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
@@ -659,10 +662,10 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -673,10 +676,10 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
@@ -693,10 +696,10 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
@@ -710,10 +713,10 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
@@ -727,10 +730,10 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
@@ -744,10 +747,10 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
@@ -764,10 +767,10 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F13" t="s">
@@ -781,10 +784,10 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F14" t="s">
@@ -801,10 +804,10 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
@@ -818,10 +821,10 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
